--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/15/seed4/result_data_KNN.xlsx
@@ -536,7 +536,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-12.084</v>
+        <v>-12.661</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -550,13 +550,13 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.622000000000001</v>
+        <v>5.865</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.938</v>
+        <v>-7.696000000000001</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-22.118</v>
+        <v>-21.881</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -607,7 +607,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.404</v>
+        <v>-8.337</v>
       </c>
       <c r="E10" t="n">
         <v>15.84</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.456</v>
+        <v>5.782999999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -658,7 +658,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.282000000000001</v>
+        <v>-7.726999999999999</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.944</v>
+        <v>6.229</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.13</v>
+        <v>-12.909</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.692</v>
+        <v>-8.579000000000001</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.842</v>
+        <v>-21.993</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.62</v>
+        <v>-20.931</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.346000000000001</v>
+        <v>-7.874</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -845,7 +845,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.181999999999999</v>
+        <v>-7.547</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.776</v>
+        <v>5.962</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.356</v>
+        <v>-21.334</v>
       </c>
       <c r="B27" t="n">
-        <v>6.343999999999999</v>
+        <v>6.006</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.904</v>
+        <v>6.169</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -995,7 +995,7 @@
         <v>6.69</v>
       </c>
       <c r="C33" t="n">
-        <v>-11.558</v>
+        <v>-11.314</v>
       </c>
       <c r="D33" t="n">
         <v>-6.63</v>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-20.604</v>
+        <v>-20.067</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.668</v>
+        <v>-13.013</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.416</v>
+        <v>8.270000000000001</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,10 +1077,10 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.526</v>
+        <v>5.439</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.408</v>
+        <v>-12.61</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.038</v>
+        <v>-7.634</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1165,7 +1165,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-12.076</v>
+        <v>-12.494</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.984</v>
+        <v>-12.106</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1233,10 +1233,10 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-11.706</v>
+        <v>-11.418</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.02</v>
+        <v>-7.372</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.314</v>
+        <v>-7.229000000000001</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1298,10 +1298,10 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.910000000000001</v>
+        <v>5.911</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.75</v>
+        <v>-11.915</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1315,13 +1315,13 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>6.644</v>
+        <v>5.478</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.407999999999999</v>
+        <v>-7.668000000000001</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>7.103999999999999</v>
+        <v>6.394</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.968000000000001</v>
+        <v>-7.825</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.376</v>
+        <v>-13.667</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1505,7 +1505,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-10.89</v>
+        <v>-12.277</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.854</v>
+        <v>-21.701</v>
       </c>
       <c r="B69" t="n">
-        <v>5.45</v>
+        <v>6.616</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,10 +1621,10 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>5.773999999999999</v>
+        <v>6.201000000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.678</v>
+        <v>-11.114</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.988</v>
+        <v>-20.738</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-21.496</v>
+        <v>-20.609</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.528</v>
+        <v>6.219</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.86</v>
+        <v>-21.938</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-20.384</v>
+        <v>-20.724</v>
       </c>
       <c r="B83" t="n">
-        <v>8.963999999999999</v>
+        <v>7.435</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.498000000000001</v>
+        <v>-8.161</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-11.854</v>
+        <v>-12.619</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-22.142</v>
+        <v>-22.021</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-13.044</v>
+        <v>-12.526</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.714000000000002</v>
+        <v>-8.310999999999998</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2154,7 +2154,7 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.982000000000001</v>
+        <v>-7.831</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>7.7</v>
+        <v>7.402999999999999</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
